--- a/DigitalProject/testdata.xlsx
+++ b/DigitalProject/testdata.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D8524F-F7ED-4357-B450-2586F9EBDF72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1731570A-DC14-4F8A-8622-4B1356D65887}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="testreader" sheetId="2" r:id="rId2"/>
-    <sheet name="sample" sheetId="3" r:id="rId3"/>
+    <sheet name="login" r:id="rId1" sheetId="1"/>
+    <sheet name="testreader" r:id="rId2" sheetId="2"/>
+    <sheet name="sample" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>UserName</t>
   </si>
@@ -151,12 +151,19 @@
   </si>
   <si>
     <t>Aborted</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,7 +199,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <name val="Algerian"/>
     </font>
   </fonts>
@@ -235,29 +242,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -274,10 +281,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -312,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -347,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -441,21 +448,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -472,7 +479,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -524,27 +531,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,7 +571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -577,9 +584,11 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="E2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -592,9 +601,11 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row ht="24.75" r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -609,7 +620,7 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -622,17 +633,19 @@
       <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FD1598-B215-445D-8C75-A689FF55B541}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FD1598-B215-445D-8C75-A689FF55B541}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -640,10 +653,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +770,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9222A2-9E62-4D17-BA1F-D5C3B71F9BBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9222A2-9E62-4D17-BA1F-D5C3B71F9BBD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -772,6 +785,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>